--- a/Result/Tweet_July.xlsx
+++ b/Result/Tweet_July.xlsx
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Tweet Sentiment</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -80,6 +88,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9966"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF7C80"/>
       <color rgb="FF993366"/>
       <color rgb="FFC56B85"/>
     </mruColors>
@@ -117,9 +128,6 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -132,9 +140,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" b="1" u="sng"/>
+              <a:rPr lang="en-IN" sz="1600" b="1" i="0" u="sng" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Tweet Sentiment Trend for July</a:t>
             </a:r>
+            <a:endParaRPr lang="en-IN" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -153,9 +166,6 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -173,45 +183,55 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7742075029844727E-2"/>
+          <c:y val="0.12700625558534406"/>
+          <c:w val="0.89185919113518097"/>
+          <c:h val="0.76546860596848987"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Tweet Sentiment</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tweet Sentiment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:srgbClr val="5B9BD5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="993366"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="1"/>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-874A-443F-A8F1-29EA32917EE1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -228,7 +248,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -328,15 +348,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FF9966"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60A5-495B-892F-BEA679BFE043}"/>
+              <c16:uniqueId val="{00000000-874A-443F-A8F1-29EA32917EE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -344,51 +375,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:upDownBars>
-          <c:gapWidth val="50"/>
-          <c:upBars>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="15000"/>
-                    <a:lumOff val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:upBars>
-          <c:downBars>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:downBars>
-        </c:upDownBars>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="966627743"/>
-        <c:axId val="966628575"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="124820927"/>
+        <c:axId val="124822591"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="966627743"/>
+        <c:axId val="124820927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,9 +395,6 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -417,7 +407,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" b="1" u="none"/>
+                  <a:rPr lang="en-IN" b="1"/>
                   <a:t>Day</a:t>
                 </a:r>
               </a:p>
@@ -438,9 +428,6 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -456,8 +443,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -479,9 +466,6 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -496,7 +480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="966628575"/>
+        <c:crossAx val="124822591"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -504,7 +488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="966628575"/>
+        <c:axId val="124822591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,9 +516,6 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -548,12 +529,24 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-IN" b="1"/>
-                  <a:t>Sentiment Score</a:t>
+                  <a:t>Sentiment</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" b="1" baseline="0"/>
+                  <a:t> Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.1626534809797852E-3"/>
+              <c:y val="0.38195409009227993"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -568,9 +561,6 @@
             <a:p>
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -603,9 +593,6 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -620,7 +607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="966627743"/>
+        <c:crossAx val="124820927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -634,20 +621,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.43126722561741637"/>
-          <c:y val="0.92219345497708904"/>
-          <c:w val="0.21367090679852196"/>
-          <c:h val="6.2674533371350871E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -660,11 +634,8 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -688,14 +659,13 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="sq" cmpd="sng" algn="ctr">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -705,11 +675,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -763,7 +729,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1270,19 +1236,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1563,166 +1529,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>9.6000000000000002E-2</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6.5970000000000001E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-2.1999999999999999E-2</v>
+        <v>6.5970000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8.0000000000000002E-3</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>-5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>9.6000000000000002E-2</v>
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>-1.7999999999999999E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>-6.4000000000000001E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>-9.0999999999999998E-2</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>-0.128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>-0.08</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>-1.2E-2</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>0.23200000000000001</v>
+        <v>-1.2E-2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>-0.192</v>
+        <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>0</v>
+        <v>-0.192</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>-2E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>0.08</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>-0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>-0.123</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>-7.4999999999999997E-2</v>
+        <v>-0.123</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>-0.01</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>-0.184</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>-8.8999999999999996E-2</v>
+        <v>-0.184</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>-6.9000000000000006E-2</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>-0.126</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>0.193</v>
+        <v>-0.126</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>-0.33700000000000002</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>-6.3E-2</v>
+        <v>-0.33700000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <v>-6.3E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
